--- a/data/trans_bre/P7B_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P7B_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -636,52 +636,52 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,08</t>
+          <t>4,07</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>9,65</t>
+          <t>7,5</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>8,22</t>
+          <t>8,3</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>5,73</t>
+          <t>5,5</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>3,81</t>
+          <t>3,82</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>14,89%</t>
+          <t>14,86%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>44,15%</t>
+          <t>32,31%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>40,05%</t>
+          <t>40,04%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>28,38%</t>
+          <t>26,32%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>12,04%</t>
+          <t>12,07%</t>
         </is>
       </c>
     </row>
@@ -694,52 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,01; 13,69</t>
+          <t>-6,24; 14,41</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 19,89</t>
+          <t>-3,23; 17,78</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 17,29</t>
+          <t>-0,91; 18,24</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,28; 15,81</t>
+          <t>-5,08; 15,99</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-9,34; 17,3</t>
+          <t>-9,38; 17,46</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-21,12; 61,32</t>
+          <t>-18,67; 67,81</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 113,96</t>
+          <t>-12,37; 106,03</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-7,37; 106,79</t>
+          <t>-4,35; 117,77</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-16,29; 107,31</t>
+          <t>-19,89; 109,82</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-25,17; 71,23</t>
+          <t>-25,49; 66,42</t>
         </is>
       </c>
     </row>
@@ -761,47 +761,47 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>16,1</t>
+          <t>15,69</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>21,18</t>
+          <t>20,93</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>17,32</t>
+          <t>17,18</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>16,67</t>
+          <t>16,65</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>60,22%</t>
+          <t>60,19%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>43,22%</t>
+          <t>42,61%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>61,9%</t>
+          <t>61,88%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>48,86%</t>
+          <t>48,96%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>47,8%</t>
+          <t>47,71%</t>
         </is>
       </c>
     </row>
@@ -814,52 +814,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>9,19; 31,5</t>
+          <t>9,37; 31,32</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,28; 27,43</t>
+          <t>2,8; 27,65</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>10,87; 30,05</t>
+          <t>8,68; 30,13</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,2; 28,38</t>
+          <t>5,31; 26,94</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,77; 29,43</t>
+          <t>2,85; 29,13</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>20,82; 110,98</t>
+          <t>21,7; 109,82</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,69; 92,19</t>
+          <t>5,04; 93,9</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>26,76; 108,35</t>
+          <t>20,59; 109,35</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>13,18; 99,06</t>
+          <t>11,74; 95,26</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>6,72; 108,84</t>
+          <t>3,66; 104,33</t>
         </is>
       </c>
     </row>
@@ -881,22 +881,22 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>10,96</t>
+          <t>12,56</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>8,73</t>
+          <t>9,32</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>10,95</t>
+          <t>11,54</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>10,66</t>
+          <t>10,65</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -906,22 +906,22 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>16,32%</t>
+          <t>18,78%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>12,78%</t>
+          <t>13,72%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>16,63%</t>
+          <t>17,63%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>18,04%</t>
+          <t>18,02%</t>
         </is>
       </c>
     </row>
@@ -934,52 +934,52 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 13,98</t>
+          <t>-0,96; 14,76</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,55; 22,15</t>
+          <t>3,96; 22,52</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,44; 16,65</t>
+          <t>1,67; 16,92</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,54; 19,81</t>
+          <t>4,32; 19,48</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,59; 19,65</t>
+          <t>1,0; 19,1</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 21,41</t>
+          <t>-1,33; 23,04</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,71; 37,17</t>
+          <t>5,58; 37,12</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,38; 26,85</t>
+          <t>2,37; 26,77</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,04; 33,98</t>
+          <t>6,21; 33,04</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2,58; 36,26</t>
+          <t>1,59; 35,79</t>
         </is>
       </c>
     </row>
@@ -1001,17 +1001,17 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-10,23</t>
+          <t>-10,36</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-7,29</t>
+          <t>-8,22</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-3,48</t>
+          <t>-3,73</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1026,22 +1026,22 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-24,64%</t>
+          <t>-24,91%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-18,26%</t>
+          <t>-20,19%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-9,34%</t>
+          <t>-9,92%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>-21,49%</t>
+          <t>-21,48%</t>
         </is>
       </c>
     </row>
@@ -1054,52 +1054,52 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-18,39; -3,18</t>
+          <t>-19,23; -3,32</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-18,98; -2,23</t>
+          <t>-17,81; -2,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-15,14; 0,79</t>
+          <t>-16,14; -0,4</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-10,08; 4,36</t>
+          <t>-10,8; 3,92</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-19,05; 0,76</t>
+          <t>-19,26; 0,62</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-39,98; -8,28</t>
+          <t>-41,85; -9,35</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-40,74; -5,92</t>
+          <t>-39,75; -5,72</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-34,2; 2,23</t>
+          <t>-35,84; -1,09</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-24,8; 11,99</t>
+          <t>-25,86; 11,88</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-39,6; 1,74</t>
+          <t>-39,99; 1,61</t>
         </is>
       </c>
     </row>
@@ -1121,17 +1121,17 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-2,5</t>
+          <t>-1,91</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,17</t>
+          <t>-0,93</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-1,71</t>
+          <t>-1,64</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1146,22 +1146,22 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-22,99%</t>
+          <t>-18,14%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-13,45%</t>
+          <t>-10,78%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-24,0%</t>
+          <t>-23,1%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>10,26%</t>
+          <t>10,31%</t>
         </is>
       </c>
     </row>
@@ -1174,52 +1174,52 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,93; 5,76</t>
+          <t>-4,87; 5,39</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-8,71; 3,41</t>
+          <t>-8,04; 3,88</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,04; 4,01</t>
+          <t>-5,34; 4,11</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,34; 2,49</t>
+          <t>-5,74; 2,65</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-5,7; 7,53</t>
+          <t>-5,51; 6,77</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-46,02; 111,97</t>
+          <t>-46,61; 105,35</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-59,43; 45,55</t>
+          <t>-57,12; 57,46</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-52,22; 69,07</t>
+          <t>-50,67; 69,04</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-63,84; 54,01</t>
+          <t>-65,07; 52,05</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>-40,05; 119,95</t>
+          <t>-42,45; 105,78</t>
         </is>
       </c>
     </row>
@@ -1241,17 +1241,17 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-2,32</t>
+          <t>-2,26</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-1,22</t>
+          <t>-0,75</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>2,99</t>
+          <t>2,52</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1261,27 +1261,27 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-42,17%</t>
+          <t>-42,14%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-26,18%</t>
+          <t>-24,36%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-14,29%</t>
+          <t>-9,67%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>74,24%</t>
+          <t>58,32%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>34,58%</t>
+          <t>34,65%</t>
         </is>
       </c>
     </row>
@@ -1294,52 +1294,52 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-11,58; 1,05</t>
+          <t>-11,96; 1,25</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-13,14; 3,24</t>
+          <t>-11,84; 3,61</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-14,15; 4,6</t>
+          <t>-10,49; 4,46</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 7,7</t>
+          <t>-2,92; 7,13</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-3,12; 8,02</t>
+          <t>-4,12; 7,47</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-80,0; 28,77</t>
+          <t>-83,1; 32,52</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-78,22; 75,63</t>
+          <t>-74,3; 72,53</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-77,65; 111,07</t>
+          <t>-71,59; 109,31</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-30,42; 380,81</t>
+          <t>-46,7; 303,58</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>-52,4; 337,12</t>
+          <t>-62,56; 283,59</t>
         </is>
       </c>
     </row>
@@ -1361,17 +1361,17 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,98</t>
+          <t>2,21</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3,55</t>
+          <t>3,57</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>4,15</t>
+          <t>4,05</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1386,22 +1386,22 @@
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>5,9%</t>
+          <t>6,58%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>10,98%</t>
+          <t>11,1%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>13,51%</t>
+          <t>13,18%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>3,74%</t>
+          <t>3,73%</t>
         </is>
       </c>
     </row>
@@ -1414,52 +1414,59 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,43; 4,71</t>
+          <t>-2,77; 5,05</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,91; 5,99</t>
+          <t>-2,01; 6,31</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 7,19</t>
+          <t>-0,14; 7,18</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,36; 7,94</t>
+          <t>0,16; 7,85</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,35; 5,39</t>
+          <t>-2,98; 5,51</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-6,94; 15,01</t>
+          <t>-7,6; 16,31</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-7,84; 19,6</t>
+          <t>-5,31; 20,59</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 23,71</t>
+          <t>-0,44; 23,65</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,06; 28,31</t>
+          <t>0,49; 27,71</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>-9,32; 17,76</t>
+          <t>-8,83; 18,73</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
